--- a/Obchod_s_pc_komponentmi.xlsx
+++ b/Obchod_s_pc_komponentmi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Desktop\Škola\DAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0BDA2-128F-4DB3-9D90-C863E5AAFAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2095B1B-3E4F-41FD-B954-93E698D87A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6A45836-4683-44ED-BE86-DF174DBF5C44}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="85">
   <si>
     <t>Tabuľka komponenty</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Obchod ktorému daný komponent patrí</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Tabuľka uživateľ</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>Id vybraného komponentu</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>Áno</t>
   </si>
 </sst>
 </file>
@@ -873,7 +876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2BE6CC-51EB-4C86-A112-2E732B35C319}">
   <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -920,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>17</v>
@@ -939,7 +944,7 @@
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="1" t="s">
@@ -957,8 +962,8 @@
         <v>50</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
-        <v>17</v>
+      <c r="F5" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="2" t="s">
@@ -1003,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>17</v>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="1" t="s">
@@ -1040,8 +1045,8 @@
         <v>50</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="21" t="s">
-        <v>17</v>
+      <c r="F11" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="1" t="s">
@@ -1059,8 +1064,8 @@
         <v>500</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
+      <c r="F12" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="1" t="s">
@@ -1078,8 +1083,8 @@
         <v>10</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="21" t="s">
-        <v>17</v>
+      <c r="F13" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="1" t="s">
@@ -1097,8 +1102,8 @@
         <v>10</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="21" t="s">
-        <v>17</v>
+      <c r="F14" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="1" t="s">
@@ -1114,8 +1119,8 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="21" t="s">
-        <v>17</v>
+      <c r="F15" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="1" t="s">
@@ -1133,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="3" t="s">
@@ -1146,7 +1151,7 @@
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>7</v>
@@ -1169,7 +1174,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>14</v>
@@ -1180,8 +1185,8 @@
       <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>32</v>
+      <c r="F20" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>17</v>
@@ -1190,7 +1195,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>15</v>
@@ -1200,16 +1205,16 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>15</v>
@@ -1219,16 +1224,16 @@
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>15</v>
@@ -1238,33 +1243,33 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>15</v>
@@ -1274,11 +1279,11 @@
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1292,20 +1297,20 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>7</v>
@@ -1328,7 +1333,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>14</v>
@@ -1339,8 +1344,8 @@
       <c r="E30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>32</v>
+      <c r="F30" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>17</v>
@@ -1349,7 +1354,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>14</v>
@@ -1358,19 +1363,19 @@
         <v>100</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>30</v>
@@ -1378,16 +1383,16 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>14</v>
@@ -1396,18 +1401,18 @@
         <v>100</v>
       </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
-        <v>17</v>
+      <c r="F33" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>7</v>
@@ -1430,7 +1435,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>14</v>
@@ -1442,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>17</v>
@@ -1451,7 +1456,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>14</v>
@@ -1460,19 +1465,19 @@
         <v>100</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
@@ -1480,16 +1485,16 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="21" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>14</v>
@@ -1498,18 +1503,18 @@
         <v>100</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="22" t="s">
-        <v>17</v>
+      <c r="F40" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>7</v>
@@ -1532,7 +1537,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>14</v>
@@ -1543,8 +1548,8 @@
       <c r="E44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>32</v>
+      <c r="F44" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>17</v>
@@ -1553,7 +1558,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>14</v>
@@ -1562,19 +1567,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>15</v>
@@ -1584,16 +1589,16 @@
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>30</v>
@@ -1601,16 +1606,16 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>30</v>
@@ -1618,16 +1623,16 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>30</v>
@@ -1635,34 +1640,34 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="20" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>7</v>
@@ -1685,7 +1690,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>14</v>
@@ -1696,8 +1701,8 @@
       <c r="E54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="18" t="s">
-        <v>32</v>
+      <c r="F54" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>17</v>
@@ -1706,7 +1711,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>14</v>
@@ -1715,14 +1720,14 @@
         <v>100</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1737,16 +1742,16 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>14</v>
@@ -1755,14 +1760,14 @@
         <v>100</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
